--- a/허종원/Token/Tokens.xlsx
+++ b/허종원/Token/Tokens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongwonheo/Documents/GitHub/SamickThk_Analysis/허종원/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2E43B4-7956-3C47-849F-722EAC15945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87168BC-FBA5-924D-8BC1-1C8FB3F4CC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" xr2:uid="{4FE07235-8AA8-AB40-BD3D-C9CC234BC850}"/>
   </bookViews>
@@ -787,23 +787,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ReqStatusOfInOutBotEqp
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>GetStatusOfInOutBotEqp</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">RequestStatusAtStocker
 </t>
     </r>
@@ -2255,10 +2238,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SetStatusOfInOutBotEqp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SetStatusAtStocker</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3902,6 +3881,27 @@
 - Map의 각 위치별 Bottle ID를 Map과 같은 위치로 배열 저장
 - UI도 동일 Event를 통해 정보 획득</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ReqStatusOfInOutBotEqp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>GetStatusAtInOutBotEqp</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetStatusAtInOutBotEqp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4601,10 +4601,10 @@
   <dimension ref="B1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F127" sqref="F127"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4660,7 +4660,7 @@
         <v>101</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>150</v>
+        <v>347</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>149</v>
@@ -4669,7 +4669,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="2:9" s="7" customFormat="1" ht="76">
@@ -4695,7 +4695,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="114">
@@ -4712,7 +4712,7 @@
         <v>102</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>215</v>
+        <v>348</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>149</v>
@@ -4721,7 +4721,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="133">
@@ -4738,7 +4738,7 @@
         <v>201</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>149</v>
@@ -4747,7 +4747,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="114">
@@ -4764,7 +4764,7 @@
         <v>202</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>149</v>
@@ -4773,7 +4773,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="133">
@@ -4790,7 +4790,7 @@
         <v>301</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>149</v>
@@ -4799,7 +4799,7 @@
         <v>14</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="133">
@@ -4821,7 +4821,7 @@
         <v>14</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="114">
@@ -4838,7 +4838,7 @@
         <v>302</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>149</v>
@@ -4847,7 +4847,7 @@
         <v>14</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="133">
@@ -4864,7 +4864,7 @@
         <v>401</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>149</v>
@@ -4873,7 +4873,7 @@
         <v>14</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="114">
@@ -4890,7 +4890,7 @@
         <v>402</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>149</v>
@@ -4899,7 +4899,7 @@
         <v>14</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="190">
@@ -4916,7 +4916,7 @@
         <v>501</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>149</v>
@@ -4925,7 +4925,7 @@
         <v>14</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="40" customFormat="1" ht="95">
@@ -4968,7 +4968,7 @@
         <v>502</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>149</v>
@@ -4977,7 +4977,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="38">
@@ -5020,16 +5020,16 @@
         <v>104</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="2:9" s="8" customFormat="1" ht="38">
@@ -5046,16 +5046,16 @@
         <v>105</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="114">
@@ -5069,19 +5069,19 @@
         <v>23</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="8" customFormat="1" ht="38">
@@ -5098,16 +5098,16 @@
         <v>106</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="95">
@@ -5124,16 +5124,16 @@
         <v>111</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="57">
@@ -5150,7 +5150,7 @@
         <v>112</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>149</v>
@@ -5159,7 +5159,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="57">
@@ -5176,16 +5176,16 @@
         <v>113</v>
       </c>
       <c r="F23" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="57">
@@ -5202,7 +5202,7 @@
         <v>114</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>149</v>
@@ -5211,7 +5211,7 @@
         <v>14</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="95">
@@ -5228,7 +5228,7 @@
         <v>115</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>149</v>
@@ -5237,7 +5237,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="76">
@@ -5254,16 +5254,16 @@
         <v>116</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="76">
@@ -5280,16 +5280,16 @@
         <v>117</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H27" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="95">
@@ -5306,16 +5306,16 @@
         <v>118</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="95">
@@ -5332,21 +5332,21 @@
         <v>119</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="114">
       <c r="B30" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>0</v>
@@ -5358,21 +5358,21 @@
         <v>121</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="76">
       <c r="B31" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>0</v>
@@ -5384,21 +5384,21 @@
         <v>122</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="76">
       <c r="B32" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>5</v>
@@ -5410,21 +5410,21 @@
         <v>123</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="38">
       <c r="B33" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>0</v>
@@ -5436,21 +5436,21 @@
         <v>124</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="38">
       <c r="B34" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>5</v>
@@ -5462,21 +5462,21 @@
         <v>125</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="38">
       <c r="B35" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>5</v>
@@ -5488,16 +5488,16 @@
         <v>126</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="38">
@@ -5575,7 +5575,7 @@
         <v>14</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="114">
@@ -5592,7 +5592,7 @@
         <v>151</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>149</v>
@@ -5601,7 +5601,7 @@
         <v>14</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="114">
@@ -5618,16 +5618,16 @@
         <v>211</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="57">
@@ -5641,19 +5641,19 @@
         <v>117</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F41" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="32" t="s">
         <v>202</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="32" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="76">
@@ -5670,16 +5670,16 @@
         <v>212</v>
       </c>
       <c r="F42" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="13" t="s">
         <v>204</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="38">
@@ -5694,16 +5694,16 @@
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="32" t="s">
         <v>206</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="32" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="76">
@@ -5720,7 +5720,7 @@
         <v>213</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>149</v>
@@ -5729,7 +5729,7 @@
         <v>14</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="76">
@@ -5746,7 +5746,7 @@
         <v>214</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>149</v>
@@ -5755,7 +5755,7 @@
         <v>14</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="95">
@@ -5772,7 +5772,7 @@
         <v>215</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>149</v>
@@ -5781,7 +5781,7 @@
         <v>14</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="95">
@@ -5798,7 +5798,7 @@
         <v>216</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>149</v>
@@ -5807,7 +5807,7 @@
         <v>14</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="95">
@@ -5824,7 +5824,7 @@
         <v>217</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>149</v>
@@ -5833,7 +5833,7 @@
         <v>14</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="95">
@@ -5850,7 +5850,7 @@
         <v>218</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>149</v>
@@ -5859,7 +5859,7 @@
         <v>14</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="57">
@@ -5885,7 +5885,7 @@
         <v>14</v>
       </c>
       <c r="I50" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="76">
@@ -5902,7 +5902,7 @@
         <v>222</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>149</v>
@@ -5911,7 +5911,7 @@
         <v>14</v>
       </c>
       <c r="I51" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="95">
@@ -5928,7 +5928,7 @@
         <v>223</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>149</v>
@@ -5937,7 +5937,7 @@
         <v>14</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="38">
@@ -5954,7 +5954,7 @@
         <v>224</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>149</v>
@@ -5963,7 +5963,7 @@
         <v>14</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="57">
@@ -5983,13 +5983,13 @@
         <v>87</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="76">
@@ -6009,13 +6009,13 @@
         <v>89</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H55" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="I55" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="76">
@@ -6035,13 +6035,13 @@
         <v>91</v>
       </c>
       <c r="G56" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="I56" s="13" t="s">
         <v>238</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="95">
@@ -6061,13 +6061,13 @@
         <v>93</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="57">
@@ -6093,7 +6093,7 @@
         <v>14</v>
       </c>
       <c r="I58" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="76">
@@ -6110,16 +6110,16 @@
         <v>311</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H59" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="76">
@@ -6133,19 +6133,19 @@
         <v>0</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H60" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="76">
@@ -6162,7 +6162,7 @@
         <v>312</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>149</v>
@@ -6171,7 +6171,7 @@
         <v>14</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="114">
@@ -6188,16 +6188,16 @@
         <v>313</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="76">
@@ -6211,19 +6211,19 @@
         <v>0</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="95">
@@ -6240,16 +6240,16 @@
         <v>314</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H64" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="95">
@@ -6266,16 +6266,16 @@
         <v>315</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="76">
@@ -6292,16 +6292,16 @@
         <v>316</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H66" s="26" t="s">
         <v>14</v>
       </c>
       <c r="I66" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="76">
@@ -6327,7 +6327,7 @@
         <v>14</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="19">
@@ -6344,16 +6344,16 @@
         <v>331</v>
       </c>
       <c r="F68" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="G68" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="H68" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="39" t="s">
         <v>267</v>
-      </c>
-      <c r="G68" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="H68" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" s="39" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="19">
@@ -6370,16 +6370,16 @@
         <v>332</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G69" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H69" s="38" t="s">
         <v>14</v>
       </c>
       <c r="I69" s="39" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="19">
@@ -6396,16 +6396,16 @@
         <v>333</v>
       </c>
       <c r="F70" s="38" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G70" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H70" s="38" t="s">
         <v>14</v>
       </c>
       <c r="I70" s="39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="76">
@@ -6422,16 +6422,16 @@
         <v>411</v>
       </c>
       <c r="F71" s="31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H71" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="76">
@@ -6445,19 +6445,19 @@
         <v>0</v>
       </c>
       <c r="E72" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="F72" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="32" t="s">
         <v>273</v>
-      </c>
-      <c r="F72" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" s="32" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="76">
@@ -6474,7 +6474,7 @@
         <v>412</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>149</v>
@@ -6483,7 +6483,7 @@
         <v>14</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="57">
@@ -6500,16 +6500,16 @@
         <v>413</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="76">
@@ -6523,19 +6523,19 @@
         <v>0</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H75" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="95">
@@ -6552,16 +6552,16 @@
         <v>414</v>
       </c>
       <c r="F76" s="31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="95">
@@ -6578,16 +6578,16 @@
         <v>415</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H77" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="19">
@@ -6604,16 +6604,16 @@
         <v>431</v>
       </c>
       <c r="F78" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="G78" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="H78" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="39" t="s">
         <v>290</v>
-      </c>
-      <c r="G78" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="H78" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" s="39" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="79" spans="2:9" ht="19">
@@ -6630,16 +6630,16 @@
         <v>432</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G79" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H79" s="38" t="s">
         <v>14</v>
       </c>
       <c r="I79" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="2:9" ht="19">
@@ -6656,16 +6656,16 @@
         <v>433</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G80" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H80" s="38" t="s">
         <v>14</v>
       </c>
       <c r="I80" s="39" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="2:9" ht="57">
@@ -6691,7 +6691,7 @@
         <v>14</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82" spans="2:9" ht="38">
@@ -6708,16 +6708,16 @@
         <v>504</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H82" s="16" t="s">
         <v>14</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="2:9" ht="57">
@@ -6734,16 +6734,16 @@
         <v>551</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H83" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="84" spans="2:9" ht="19">
@@ -6760,16 +6760,16 @@
         <v>552</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H84" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="2:9" ht="38">
@@ -6786,16 +6786,16 @@
         <v>561</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H85" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="86" spans="2:9" ht="38">
@@ -6812,16 +6812,16 @@
         <v>562</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H86" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="2:9" ht="19">
@@ -6838,12 +6838,12 @@
         <v>563</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
       <c r="I87" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="88" spans="2:9" ht="19">
@@ -6860,12 +6860,12 @@
         <v>564</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
       <c r="I88" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="2:9" ht="38">
@@ -6882,16 +6882,16 @@
         <v>565</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H89" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="2:9" ht="38">
@@ -6908,16 +6908,16 @@
         <v>566</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H90" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="2:9" ht="19">
@@ -6934,12 +6934,12 @@
         <v>567</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
       <c r="I91" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="2:9" ht="19">
@@ -6956,12 +6956,12 @@
         <v>568</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
       <c r="I92" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="2:9" ht="19">
@@ -6978,16 +6978,16 @@
         <v>552</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H93" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="2:9" ht="38">
@@ -7004,16 +7004,16 @@
         <v>571</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H94" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="2:9" ht="38">
@@ -7030,16 +7030,16 @@
         <v>572</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H95" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="19">
@@ -7056,12 +7056,12 @@
         <v>573</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
       <c r="I96" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="19">
@@ -7078,12 +7078,12 @@
         <v>574</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
       <c r="I97" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="98" spans="2:9" ht="38">
@@ -7100,16 +7100,16 @@
         <v>575</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H98" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I98" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="99" spans="2:9" ht="38">
@@ -7126,16 +7126,16 @@
         <v>576</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H99" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I99" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="100" spans="2:9" ht="19">
@@ -7152,12 +7152,12 @@
         <v>577</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
       <c r="I100" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="101" spans="2:9" ht="19">
@@ -7174,12 +7174,12 @@
         <v>578</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
       <c r="I101" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" spans="2:9" ht="38">
@@ -7196,16 +7196,16 @@
         <v>581</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H102" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I102" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" spans="2:9" ht="38">
@@ -7222,16 +7222,16 @@
         <v>582</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H103" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I103" s="18" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" spans="2:9" ht="19">
@@ -7248,12 +7248,12 @@
         <v>583</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G104" s="16"/>
       <c r="H104" s="16"/>
       <c r="I104" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105" spans="2:9" ht="19">
@@ -7270,12 +7270,12 @@
         <v>584</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
       <c r="I105" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="106" spans="2:9" ht="38">
@@ -7292,16 +7292,16 @@
         <v>585</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H106" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I106" s="18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="107" spans="2:9" ht="38">
@@ -7318,16 +7318,16 @@
         <v>586</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H107" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="108" spans="2:9" ht="19">
@@ -7344,12 +7344,12 @@
         <v>587</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G108" s="16"/>
       <c r="H108" s="16"/>
       <c r="I108" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="2:9" ht="19">
@@ -7366,12 +7366,12 @@
         <v>588</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
       <c r="I109" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="2:9" ht="38">
@@ -7388,16 +7388,16 @@
         <v>591</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H110" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I110" s="18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="2:9" ht="38">
@@ -7414,16 +7414,16 @@
         <v>592</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H111" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I111" s="18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112" spans="2:9" ht="19">
@@ -7440,12 +7440,12 @@
         <v>593</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G112" s="16"/>
       <c r="H112" s="16"/>
       <c r="I112" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" spans="2:9" ht="19">
@@ -7462,12 +7462,12 @@
         <v>594</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G113" s="16"/>
       <c r="H113" s="16"/>
       <c r="I113" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="38">
@@ -7484,16 +7484,16 @@
         <v>595</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H114" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I114" s="18" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="38">
@@ -7510,16 +7510,16 @@
         <v>596</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H115" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I115" s="18" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="19">
@@ -7536,12 +7536,12 @@
         <v>597</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G116" s="16"/>
       <c r="H116" s="16"/>
       <c r="I116" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="117" spans="2:9" ht="19">
@@ -7558,12 +7558,12 @@
         <v>598</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
       <c r="I117" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="118" spans="2:9">
@@ -7610,7 +7610,7 @@
         <v>511</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G121" s="16" t="s">
         <v>149</v>
@@ -7619,7 +7619,7 @@
         <v>14</v>
       </c>
       <c r="I121" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" spans="2:9" ht="57">
@@ -7634,16 +7634,16 @@
       </c>
       <c r="E122" s="16"/>
       <c r="F122" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H122" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I122" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="123" spans="2:9">
@@ -7667,10 +7667,10 @@
         <v>0</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
@@ -7688,7 +7688,7 @@
         <v>512</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
@@ -7775,7 +7775,7 @@
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
       <c r="E130" s="44" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F130" s="11" t="s">
         <v>134</v>
@@ -7807,7 +7807,7 @@
         <v>14</v>
       </c>
       <c r="I131" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="132" spans="2:9">

--- a/허종원/Token/Tokens.xlsx
+++ b/허종원/Token/Tokens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongwonheo/Documents/GitHub/SamickThk_Analysis/허종원/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87168BC-FBA5-924D-8BC1-1C8FB3F4CC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19279795-6254-A94D-B6C1-01F75F188FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" xr2:uid="{4FE07235-8AA8-AB40-BD3D-C9CC234BC850}"/>
   </bookViews>
@@ -904,98 +904,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">FilledBottleLoadReqAtWorkingArea
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ReqLoadFilledBottleAtWorkingArea</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>106
 (ex 105)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">FilledBottleLoadCompAtWorkingArea
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>CompLoadingFilledBottleAtWorkingArea</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FilledBottleUnloadReqAtWorkingArea
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ReqUnloadFilledBottleAtWorkingArea</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">반출입기 U1(출하) Port에서 실병 출하요청(UnloadReq)메세지
---&gt; 112, 113번 한개만 사용해도 가능할 수 있음. 검토필요
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>==&gt; 반출입기에 실병이 있는 동안 MoMa가 계속 작업한다면 불필요함</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FilledBottleTransferCompAtWorkingArea
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>CompUnloadFilledBottleAtWorkingArea</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">반출입기에서 실병 출하완료메세지(#13 공정완료)
 </t>
     </r>
@@ -1009,62 +923,6 @@
       </rPr>
       <t>==&gt; 실병이 출하되면 반출입기 상태가 변경되므로, Dispatcher에서 #101로 확인 가능.
 ==&gt; MoMa에서도 Dispatcher에 보고하므로, 불필요함.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EmptyBottleLoadReqAtWorkingArea
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ReqLoadEmptyBottleAtWorkingArea</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">반출입기 U1(출하) Port에서 실병 입하완료(LoadComp)메세지.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Dispatcher에서 #101을 통해 확인 가능.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>==&gt; Dispatcher가 반출입기 상태를 수시로 확인하면 불필요할 수 있음</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1230,57 +1088,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">EmptyBottleLoadCompAtWorkingArea
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>CompLoadEmptyBottleAtWorkingArea</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EmptyBottleUnloadReqAtWorkingArea
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ReqUnloadEmptyBottleAtWorkingArea</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EmptyBottleTransferCompAtWorkingArea
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>CompUnloadEmptyBottleAtWorkingArea</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">FilledBottleLoadReqAtOutArea
 </t>
     </r>
@@ -1293,197 +1100,6 @@
         <charset val="129"/>
       </rPr>
       <t>ReqLoadFilledBottleAtOutArea</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RptUnloadEmptyBottleAtWorkingArea</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">반출입기 L1(입고) Port에서 빈병 도착완료메세지(#11 공정시작)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">==&gt; MoMa-&gt;Dispatcher-&gt;InOutBotEqp 혹은 MoMa-&gt;InOutBotEqp
-==&gt; 수작업 Unloading 시, 필요할 지 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검토필요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-==&gt; UI에 표시</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">반출입기 L1(입고) Port에서 빈병 출하요청(UnloadReq)메세지
---&gt; 116, 117번 한개만 사용해도 가능할 수 있음. 검토필요
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>==&gt; #116 하나로 가능할 것으로 판단됨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">==&gt; 수작업 Unloading 시, 필요할 지 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검토필요</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">반출입기에서 빈병 입고완료메세지
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">==&gt; #116 하나로 가능할 것으로 판단됨
-==&gt; MoMa-&gt;Dispatcher-&gt;InOutBotEqp 혹은 MoMa-&gt;InOutBotEqp
-==&gt; 수작업 Unloading 시, 필요할 지 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검토필요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-==&gt; Distacher에서 수시로 반출입기 상태 확인 통해 확인 가능</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>반출입기에서 빈병 입고완료를 Dispatcher에 보고 메세지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">==&gt; #116 하나로 가능할 것으로 판단됨
-==&gt; MoMa-&gt;Dispatcher-&gt;InOutBotEqp 혹은 MoMa-&gt;InOutBotEqp
-==&gt; 수작업 Unloading 시, 필요할 지 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검토필요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-==&gt; Distacher에서 수시로 반출입기 상태 확인 통해 확인 가능</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1559,96 +1175,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> 반출입기 L1(입고) Port에서 빈병 입고요청메세지.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>==&gt; MoMa가 빈병을 갖고 반출입기에 도착하면 MoMa가 Dispatcher에 알리고, Dispatcher가 이를 반출입기에 통지.
-==&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> MoMa-&gt;Dispatcher-&gt;InOutBotEqp 도 가능하나, ROS2의 DDS기능을 이용하여 MoMa에서 Dispatcher와 InOutBotEqp로 동시 발송가능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-==&gt; 반출입기는 Door 개폐 등의 일련의 입고준비를 수행</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">반출입기 U1(출하) Port에서 실병 입고요청(LoadReq)메세지
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">==&gt; 반출입기에 실병의 입고를 담당자에게 요청.
-==&gt; UI에 표시.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>==&gt; L1, L2과 U2를 반출입기 전체 Map으로 통합 관리 가능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>==&gt; 수작업 Loading 시에는 불필요할 수 있음</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">EmptyBottleLoadCompAtOutArea
 </t>
     </r>
@@ -1803,89 +1329,6 @@
       </rPr>
       <t xml:space="preserve">
 ==&gt; Distacher에서 수시로 반출입기 상태 확인 통해 확인 가능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>==&gt; OutArea에 대해 관제가 가능한가???</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">반출입기 L2(입고) Port에서 실병 입고요청(LoadReq)메세지
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>==&gt; L1, L2과 U2를 반출입기 전체 Map으로 통합 관리 가능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">==&gt; 수작업 Loading 시, 필요할 지 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검토필요 (#123으로 통합 가능)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-==&gt; Distacher에서 수시로 반출입기 상태 확인 통해 확인 가능
-==&gt; UI에 표시</t>
     </r>
     <r>
       <rPr>
@@ -3904,12 +3347,765 @@
     <t>SetStatusAtInOutBotEqp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">반출입기 U1(출하) Port에서 실병 입고요청(LoadReq)메세지
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">==&gt; 반출입기에 실병의 입고를 담당자에게 요청.
+==&gt; UI에 표시.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>==&gt; L1, L2과 U2를 반출입기 전체 Map으로 통합 관리 가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>==&gt; 수작업 Loading 시에는 불필요할 수 있음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>==&gt; WorkingArea는 명확한 위치가 아님</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">반출입기 U1(출하) Port에서 실병 입하완료(LoadComp)메세지.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Dispatcher에서 #101을 통해 확인 가능.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>==&gt; Dispatcher가 반출입기 상태를 수시로 확인하면 불필요할 수 있음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>==&gt; WorkingArea는 명확한 위치가 아님</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">반출입기 U1(출하) Port에서 실병 출하요청(UnloadReq)메세지
+--&gt; 112, 113번 한개만 사용해도 가능할 수 있음. 검토필요
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>==&gt; 반출입기에 실병이 있는 동안 MoMa가 계속 작업한다면 불필요함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>==&gt; WorkingArea는 명확한 위치가 아님</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 반출입기 L1(입고) Port에서 빈병 입고요청메세지.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>==&gt; MoMa가 빈병을 갖고 반출입기에 도착하면 MoMa가 Dispatcher에 알리고, Dispatcher가 이를 반출입기에 통지.
+==&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> MoMa-&gt;Dispatcher-&gt;InOutBotEqp 도 가능하나, ROS2의 DDS기능을 이용하여 MoMa에서 Dispatcher와 InOutBotEqp로 동시 발송가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+==&gt; 반출입기는 Door 개폐 등의 일련의 입고준비를 수행
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>==&gt; WorkingArea는 명확한 위치가 아님</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">반출입기 L1(입고) Port에서 빈병 도착완료메세지(#11 공정시작)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">==&gt; MoMa-&gt;Dispatcher-&gt;InOutBotEqp 혹은 MoMa-&gt;InOutBotEqp
+==&gt; 수작업 Unloading 시, 필요할 지 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검토필요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+==&gt; UI에 표시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>==&gt; WorkingArea는 명확한 위치가 아님</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">반출입기 L1(입고) Port에서 빈병 출하요청(UnloadReq)메세지
+--&gt; 116, 117번 한개만 사용해도 가능할 수 있음. 검토필요
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>==&gt; #116 하나로 가능할 것으로 판단됨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">==&gt; 수작업 Unloading 시, 필요할 지 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검토필요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>==&gt; WorkingArea는 명확한 위치가 아님</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반출입기에서 빈병 입고완료를 Dispatcher에 보고 메세지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">==&gt; #116 하나로 가능할 것으로 판단됨
+==&gt; MoMa-&gt;Dispatcher-&gt;InOutBotEqp 혹은 MoMa-&gt;InOutBotEqp
+==&gt; 수작업 Unloading 시, 필요할 지 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검토필요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+==&gt; Distacher에서 수시로 반출입기 상태 확인 통해 확인 가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>==&gt; WorkingArea는 명확한 위치가 아님</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">반출입기에서 빈병 입고완료메세지
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">==&gt; #116 하나로 가능할 것으로 판단됨
+==&gt; MoMa-&gt;Dispatcher-&gt;InOutBotEqp 혹은 MoMa-&gt;InOutBotEqp
+==&gt; 수작업 Unloading 시, 필요할 지 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검토필요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+==&gt; Distacher에서 수시로 반출입기 상태 확인 통해 확인 가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>==&gt; WorkingArea는 명확한 위치가 아님</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">반출입기 L2(입고) Port에서 실병 입고요청(LoadReq)메세지
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>==&gt; L1, L2과 U2를 반출입기 전체 Map으로 통합 관리 가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">==&gt; 수작업 Loading 시, 필요할 지 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검토필요 (#123으로 통합 가능)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+==&gt; Distacher에서 수시로 반출입기 상태 확인 통해 확인 가능
+==&gt; UI에 표시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>==&gt; OutArea에 대해 관제가 가능한가???</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>==&gt; WorkingArea는 명확한 위치가 아님</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FilledBottleLoadReqAtWorkingArea
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ReqLoadFilledBottleAtInOutBotEqp</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FilledBottleLoadCompAtWorkingArea
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>CompLoadingFilledBottleAtInOutBotEqp</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FilledBottleUnloadReqAtWorkingArea
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ReqUnloadFilledBottleAtInOutBotEqp</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FilledBottleTransferCompAtWorkingArea
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>CompUnloadFilledBottleAtInOutBotEqp</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EmptyBottleLoadReqAtWorkingArea
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ReqLoadEmptyBottleAtInOutBotEqp</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EmptyBottleLoadCompAtWorkingArea
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>CompLoadEmptyBottleAtInOutBotEqp</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EmptyBottleUnloadReqAtWorkingArea
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ReqUnloadEmptyBottleAtInOutBotEqp</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EmptyBottleTransferCompAtWorkingArea
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>CompUnloadEmptyBottleAtInOutBotEqp</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RptUnloadEmptyBottleAtInOutBotEqp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4071,6 +4267,22 @@
       <color theme="2" tint="-0.249977111117893"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4601,10 +4813,10 @@
   <dimension ref="B1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4660,7 +4872,7 @@
         <v>101</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>149</v>
@@ -4669,7 +4881,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="2:9" s="7" customFormat="1" ht="76">
@@ -4695,7 +4907,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="114">
@@ -4712,7 +4924,7 @@
         <v>102</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>149</v>
@@ -4721,7 +4933,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="133">
@@ -4747,7 +4959,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="114">
@@ -4764,7 +4976,7 @@
         <v>202</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>149</v>
@@ -4773,7 +4985,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="133">
@@ -4799,7 +5011,7 @@
         <v>14</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="133">
@@ -4821,7 +5033,7 @@
         <v>14</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="114">
@@ -4838,7 +5050,7 @@
         <v>302</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>149</v>
@@ -4847,7 +5059,7 @@
         <v>14</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="133">
@@ -4873,7 +5085,7 @@
         <v>14</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="114">
@@ -4890,7 +5102,7 @@
         <v>402</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>149</v>
@@ -4899,7 +5111,7 @@
         <v>14</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="190">
@@ -4916,7 +5128,7 @@
         <v>501</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>149</v>
@@ -4925,7 +5137,7 @@
         <v>14</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="40" customFormat="1" ht="95">
@@ -4968,7 +5180,7 @@
         <v>502</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>149</v>
@@ -4977,7 +5189,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="38">
@@ -5029,7 +5241,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="2:9" s="8" customFormat="1" ht="38">
@@ -5069,7 +5281,7 @@
         <v>23</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>157</v>
@@ -5081,7 +5293,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="8" customFormat="1" ht="38">
@@ -5110,8 +5322,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="95">
-      <c r="B21" s="11" t="s">
+    <row r="21" spans="2:9" ht="114">
+      <c r="B21" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -5124,7 +5336,7 @@
         <v>111</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>153</v>
@@ -5133,11 +5345,11 @@
         <v>14</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="57">
-      <c r="B22" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="76">
+      <c r="B22" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -5150,7 +5362,7 @@
         <v>112</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>162</v>
+        <v>341</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>149</v>
@@ -5159,11 +5371,11 @@
         <v>14</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="57">
-      <c r="B23" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="76">
+      <c r="B23" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -5176,7 +5388,7 @@
         <v>113</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>163</v>
+        <v>342</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>153</v>
@@ -5185,11 +5397,11 @@
         <v>14</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>164</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="57">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -5202,7 +5414,7 @@
         <v>114</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>165</v>
+        <v>343</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>149</v>
@@ -5211,11 +5423,11 @@
         <v>14</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="95">
-      <c r="B25" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="114">
+      <c r="B25" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -5228,7 +5440,7 @@
         <v>115</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>167</v>
+        <v>344</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>149</v>
@@ -5237,11 +5449,11 @@
         <v>14</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="76">
-      <c r="B26" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="95">
+      <c r="B26" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -5254,7 +5466,7 @@
         <v>116</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>173</v>
+        <v>345</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>153</v>
@@ -5263,10 +5475,10 @@
         <v>14</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="76">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="95">
       <c r="B27" s="19" t="s">
         <v>5</v>
       </c>
@@ -5280,7 +5492,7 @@
         <v>117</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>174</v>
+        <v>346</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>153</v>
@@ -5289,10 +5501,10 @@
         <v>14</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="95">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="114">
       <c r="B28" s="19" t="s">
         <v>5</v>
       </c>
@@ -5306,7 +5518,7 @@
         <v>118</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>175</v>
+        <v>347</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>153</v>
@@ -5315,10 +5527,10 @@
         <v>14</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="95">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="114">
       <c r="B29" s="19" t="s">
         <v>5</v>
       </c>
@@ -5332,7 +5544,7 @@
         <v>119</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>177</v>
+        <v>348</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>153</v>
@@ -5341,12 +5553,12 @@
         <v>14</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="114">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="133">
       <c r="B30" s="12" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>0</v>
@@ -5358,7 +5570,7 @@
         <v>121</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>153</v>
@@ -5367,12 +5579,12 @@
         <v>14</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>195</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="76">
       <c r="B31" s="12" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>0</v>
@@ -5384,7 +5596,7 @@
         <v>122</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>153</v>
@@ -5393,12 +5605,12 @@
         <v>14</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="76">
       <c r="B32" s="12" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>5</v>
@@ -5410,7 +5622,7 @@
         <v>123</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>153</v>
@@ -5419,12 +5631,12 @@
         <v>14</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="38">
       <c r="B33" s="12" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>0</v>
@@ -5436,7 +5648,7 @@
         <v>124</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>153</v>
@@ -5445,12 +5657,12 @@
         <v>14</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="38">
       <c r="B34" s="12" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>5</v>
@@ -5462,7 +5674,7 @@
         <v>125</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>153</v>
@@ -5471,12 +5683,12 @@
         <v>14</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="38">
       <c r="B35" s="12" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>5</v>
@@ -5488,7 +5700,7 @@
         <v>126</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>153</v>
@@ -5497,7 +5709,7 @@
         <v>14</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="38">
@@ -5575,7 +5787,7 @@
         <v>14</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="114">
@@ -5592,7 +5804,7 @@
         <v>151</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>149</v>
@@ -5601,7 +5813,7 @@
         <v>14</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="114">
@@ -5618,7 +5830,7 @@
         <v>211</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>153</v>
@@ -5627,7 +5839,7 @@
         <v>14</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="57">
@@ -5641,10 +5853,10 @@
         <v>117</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="F41" s="31" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>153</v>
@@ -5653,7 +5865,7 @@
         <v>14</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="76">
@@ -5670,7 +5882,7 @@
         <v>212</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>153</v>
@@ -5679,7 +5891,7 @@
         <v>14</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="38">
@@ -5694,7 +5906,7 @@
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="31" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>153</v>
@@ -5703,7 +5915,7 @@
         <v>14</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="76">
@@ -5720,7 +5932,7 @@
         <v>213</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>149</v>
@@ -5729,7 +5941,7 @@
         <v>14</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="76">
@@ -5746,7 +5958,7 @@
         <v>214</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>149</v>
@@ -5755,7 +5967,7 @@
         <v>14</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="95">
@@ -5772,7 +5984,7 @@
         <v>215</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>149</v>
@@ -5781,7 +5993,7 @@
         <v>14</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="95">
@@ -5798,7 +6010,7 @@
         <v>216</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>149</v>
@@ -5807,7 +6019,7 @@
         <v>14</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="95">
@@ -5824,7 +6036,7 @@
         <v>217</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>149</v>
@@ -5833,7 +6045,7 @@
         <v>14</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="95">
@@ -5850,7 +6062,7 @@
         <v>218</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>149</v>
@@ -5859,7 +6071,7 @@
         <v>14</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="57">
@@ -5885,7 +6097,7 @@
         <v>14</v>
       </c>
       <c r="I50" s="28" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="76">
@@ -5902,7 +6114,7 @@
         <v>222</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>149</v>
@@ -5911,7 +6123,7 @@
         <v>14</v>
       </c>
       <c r="I51" s="28" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="95">
@@ -5928,7 +6140,7 @@
         <v>223</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>149</v>
@@ -5937,7 +6149,7 @@
         <v>14</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="38">
@@ -5954,7 +6166,7 @@
         <v>224</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>149</v>
@@ -5963,7 +6175,7 @@
         <v>14</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="57">
@@ -5983,13 +6195,13 @@
         <v>87</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="76">
@@ -6009,13 +6221,13 @@
         <v>89</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="76">
@@ -6035,13 +6247,13 @@
         <v>91</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="95">
@@ -6061,13 +6273,13 @@
         <v>93</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="57">
@@ -6093,7 +6305,7 @@
         <v>14</v>
       </c>
       <c r="I58" s="28" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="76">
@@ -6110,7 +6322,7 @@
         <v>311</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>153</v>
@@ -6119,7 +6331,7 @@
         <v>14</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="76">
@@ -6133,10 +6345,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>153</v>
@@ -6145,7 +6357,7 @@
         <v>14</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="76">
@@ -6162,7 +6374,7 @@
         <v>312</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>149</v>
@@ -6171,7 +6383,7 @@
         <v>14</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="114">
@@ -6188,7 +6400,7 @@
         <v>313</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>153</v>
@@ -6197,7 +6409,7 @@
         <v>14</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="76">
@@ -6211,10 +6423,10 @@
         <v>0</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>153</v>
@@ -6223,7 +6435,7 @@
         <v>14</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="95">
@@ -6240,7 +6452,7 @@
         <v>314</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>153</v>
@@ -6249,7 +6461,7 @@
         <v>14</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="95">
@@ -6266,7 +6478,7 @@
         <v>315</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>153</v>
@@ -6275,7 +6487,7 @@
         <v>14</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="76">
@@ -6292,7 +6504,7 @@
         <v>316</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>153</v>
@@ -6301,7 +6513,7 @@
         <v>14</v>
       </c>
       <c r="I66" s="28" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="76">
@@ -6327,7 +6539,7 @@
         <v>14</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="19">
@@ -6344,7 +6556,7 @@
         <v>331</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>153</v>
@@ -6353,7 +6565,7 @@
         <v>14</v>
       </c>
       <c r="I68" s="39" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="19">
@@ -6370,7 +6582,7 @@
         <v>332</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>153</v>
@@ -6379,7 +6591,7 @@
         <v>14</v>
       </c>
       <c r="I69" s="39" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="19">
@@ -6396,7 +6608,7 @@
         <v>333</v>
       </c>
       <c r="F70" s="38" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="G70" s="38" t="s">
         <v>153</v>
@@ -6405,7 +6617,7 @@
         <v>14</v>
       </c>
       <c r="I70" s="39" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="76">
@@ -6422,7 +6634,7 @@
         <v>411</v>
       </c>
       <c r="F71" s="31" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>153</v>
@@ -6431,7 +6643,7 @@
         <v>14</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="76">
@@ -6445,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="F72" s="31" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>153</v>
@@ -6457,7 +6669,7 @@
         <v>14</v>
       </c>
       <c r="I72" s="32" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="76">
@@ -6474,7 +6686,7 @@
         <v>412</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>149</v>
@@ -6483,7 +6695,7 @@
         <v>14</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="57">
@@ -6500,7 +6712,7 @@
         <v>413</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>153</v>
@@ -6509,7 +6721,7 @@
         <v>14</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="76">
@@ -6523,10 +6735,10 @@
         <v>0</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>153</v>
@@ -6535,7 +6747,7 @@
         <v>14</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="95">
@@ -6552,7 +6764,7 @@
         <v>414</v>
       </c>
       <c r="F76" s="31" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>153</v>
@@ -6561,7 +6773,7 @@
         <v>14</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="95">
@@ -6578,7 +6790,7 @@
         <v>415</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>153</v>
@@ -6587,7 +6799,7 @@
         <v>14</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="19">
@@ -6604,7 +6816,7 @@
         <v>431</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="G78" s="38" t="s">
         <v>153</v>
@@ -6613,7 +6825,7 @@
         <v>14</v>
       </c>
       <c r="I78" s="39" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="2:9" ht="19">
@@ -6630,7 +6842,7 @@
         <v>432</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="G79" s="38" t="s">
         <v>153</v>
@@ -6639,7 +6851,7 @@
         <v>14</v>
       </c>
       <c r="I79" s="39" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="2:9" ht="19">
@@ -6656,7 +6868,7 @@
         <v>433</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="G80" s="38" t="s">
         <v>153</v>
@@ -6665,7 +6877,7 @@
         <v>14</v>
       </c>
       <c r="I80" s="39" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="2:9" ht="57">
@@ -6691,7 +6903,7 @@
         <v>14</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="2:9" ht="38">
@@ -6708,7 +6920,7 @@
         <v>504</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="G82" s="16" t="s">
         <v>153</v>
@@ -6717,7 +6929,7 @@
         <v>14</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83" spans="2:9" ht="57">
@@ -6734,7 +6946,7 @@
         <v>551</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="G83" s="16" t="s">
         <v>153</v>
@@ -6743,7 +6955,7 @@
         <v>15</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84" spans="2:9" ht="19">
@@ -6760,7 +6972,7 @@
         <v>552</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="G84" s="16" t="s">
         <v>153</v>
@@ -6769,7 +6981,7 @@
         <v>15</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="2:9" ht="38">
@@ -6786,7 +6998,7 @@
         <v>561</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="G85" s="16" t="s">
         <v>153</v>
@@ -6795,7 +7007,7 @@
         <v>15</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="2:9" ht="38">
@@ -6812,7 +7024,7 @@
         <v>562</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="G86" s="16" t="s">
         <v>153</v>
@@ -6821,7 +7033,7 @@
         <v>15</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="87" spans="2:9" ht="19">
@@ -6838,12 +7050,12 @@
         <v>563</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
       <c r="I87" s="18" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="2:9" ht="19">
@@ -6860,12 +7072,12 @@
         <v>564</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
       <c r="I88" s="18" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="2:9" ht="38">
@@ -6882,7 +7094,7 @@
         <v>565</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="G89" s="16" t="s">
         <v>153</v>
@@ -6891,7 +7103,7 @@
         <v>15</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="2:9" ht="38">
@@ -6908,7 +7120,7 @@
         <v>566</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="G90" s="16" t="s">
         <v>153</v>
@@ -6917,7 +7129,7 @@
         <v>15</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="91" spans="2:9" ht="19">
@@ -6934,12 +7146,12 @@
         <v>567</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
       <c r="I91" s="18" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="92" spans="2:9" ht="19">
@@ -6956,12 +7168,12 @@
         <v>568</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
       <c r="I92" s="18" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" spans="2:9" ht="19">
@@ -6978,7 +7190,7 @@
         <v>552</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="G93" s="16" t="s">
         <v>153</v>
@@ -6987,7 +7199,7 @@
         <v>15</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" spans="2:9" ht="38">
@@ -7004,7 +7216,7 @@
         <v>571</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="G94" s="16" t="s">
         <v>153</v>
@@ -7013,7 +7225,7 @@
         <v>15</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="95" spans="2:9" ht="38">
@@ -7030,7 +7242,7 @@
         <v>572</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="G95" s="16" t="s">
         <v>153</v>
@@ -7039,7 +7251,7 @@
         <v>15</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="19">
@@ -7056,12 +7268,12 @@
         <v>573</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
       <c r="I96" s="18" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="19">
@@ -7078,12 +7290,12 @@
         <v>574</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
       <c r="I97" s="18" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="2:9" ht="38">
@@ -7100,7 +7312,7 @@
         <v>575</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="G98" s="16" t="s">
         <v>153</v>
@@ -7109,7 +7321,7 @@
         <v>15</v>
       </c>
       <c r="I98" s="18" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="2:9" ht="38">
@@ -7126,7 +7338,7 @@
         <v>576</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="G99" s="16" t="s">
         <v>153</v>
@@ -7135,7 +7347,7 @@
         <v>15</v>
       </c>
       <c r="I99" s="18" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="2:9" ht="19">
@@ -7152,12 +7364,12 @@
         <v>577</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
       <c r="I100" s="18" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="2:9" ht="19">
@@ -7174,12 +7386,12 @@
         <v>578</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
       <c r="I101" s="18" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" spans="2:9" ht="38">
@@ -7196,7 +7408,7 @@
         <v>581</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="G102" s="16" t="s">
         <v>153</v>
@@ -7205,7 +7417,7 @@
         <v>15</v>
       </c>
       <c r="I102" s="18" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" spans="2:9" ht="38">
@@ -7222,7 +7434,7 @@
         <v>582</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="G103" s="16" t="s">
         <v>153</v>
@@ -7231,7 +7443,7 @@
         <v>15</v>
       </c>
       <c r="I103" s="18" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="104" spans="2:9" ht="19">
@@ -7248,12 +7460,12 @@
         <v>583</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G104" s="16"/>
       <c r="H104" s="16"/>
       <c r="I104" s="18" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="2:9" ht="19">
@@ -7270,12 +7482,12 @@
         <v>584</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
       <c r="I105" s="18" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" spans="2:9" ht="38">
@@ -7292,7 +7504,7 @@
         <v>585</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="G106" s="16" t="s">
         <v>153</v>
@@ -7301,7 +7513,7 @@
         <v>15</v>
       </c>
       <c r="I106" s="18" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" spans="2:9" ht="38">
@@ -7318,7 +7530,7 @@
         <v>586</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="G107" s="16" t="s">
         <v>153</v>
@@ -7327,7 +7539,7 @@
         <v>15</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="108" spans="2:9" ht="19">
@@ -7344,12 +7556,12 @@
         <v>587</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G108" s="16"/>
       <c r="H108" s="16"/>
       <c r="I108" s="18" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="2:9" ht="19">
@@ -7366,12 +7578,12 @@
         <v>588</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
       <c r="I109" s="18" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110" spans="2:9" ht="38">
@@ -7388,7 +7600,7 @@
         <v>591</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="G110" s="16" t="s">
         <v>153</v>
@@ -7397,7 +7609,7 @@
         <v>15</v>
       </c>
       <c r="I110" s="18" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="2:9" ht="38">
@@ -7414,7 +7626,7 @@
         <v>592</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G111" s="16" t="s">
         <v>153</v>
@@ -7423,7 +7635,7 @@
         <v>15</v>
       </c>
       <c r="I111" s="18" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" spans="2:9" ht="19">
@@ -7440,12 +7652,12 @@
         <v>593</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G112" s="16"/>
       <c r="H112" s="16"/>
       <c r="I112" s="18" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="2:9" ht="19">
@@ -7462,12 +7674,12 @@
         <v>594</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G113" s="16"/>
       <c r="H113" s="16"/>
       <c r="I113" s="18" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="38">
@@ -7484,7 +7696,7 @@
         <v>595</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="G114" s="16" t="s">
         <v>153</v>
@@ -7493,7 +7705,7 @@
         <v>15</v>
       </c>
       <c r="I114" s="18" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="38">
@@ -7510,7 +7722,7 @@
         <v>596</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G115" s="16" t="s">
         <v>153</v>
@@ -7519,7 +7731,7 @@
         <v>15</v>
       </c>
       <c r="I115" s="18" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="19">
@@ -7536,12 +7748,12 @@
         <v>597</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G116" s="16"/>
       <c r="H116" s="16"/>
       <c r="I116" s="18" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" spans="2:9" ht="19">
@@ -7558,12 +7770,12 @@
         <v>598</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
       <c r="I117" s="18" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="118" spans="2:9">
@@ -7610,7 +7822,7 @@
         <v>511</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="G121" s="16" t="s">
         <v>149</v>
@@ -7619,7 +7831,7 @@
         <v>14</v>
       </c>
       <c r="I121" s="13" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
     </row>
     <row r="122" spans="2:9" ht="57">
@@ -7634,7 +7846,7 @@
       </c>
       <c r="E122" s="16"/>
       <c r="F122" s="16" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="G122" s="16" t="s">
         <v>153</v>
@@ -7643,7 +7855,7 @@
         <v>15</v>
       </c>
       <c r="I122" s="18" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
     </row>
     <row r="123" spans="2:9">
@@ -7667,10 +7879,10 @@
         <v>0</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
@@ -7688,7 +7900,7 @@
         <v>512</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
@@ -7775,7 +7987,7 @@
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
       <c r="E130" s="44" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="F130" s="11" t="s">
         <v>134</v>
@@ -7807,7 +8019,7 @@
         <v>14</v>
       </c>
       <c r="I131" s="13" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
     </row>
     <row r="132" spans="2:9">
